--- a/sistemas-operativos-2/tps/Book1.xlsx
+++ b/sistemas-operativos-2/tps/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULTAD\INGENIERIA-EN-INFORMATICA\CUARTO\segundoCuatrimestre\sistemas-operativos-2\tps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INGENIERIA EN INFORMATICA\CUARTO\segundoCuatrimestre\sistemas-operativos-2\tps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57610E84-E069-4246-B12E-1AA257D23818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B5080-A68A-431E-B719-F2AC21772FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="248" xr2:uid="{8A75BE71-90F8-4753-AA5E-782A8B72E53D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="248" xr2:uid="{8A75BE71-90F8-4753-AA5E-782A8B72E53D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +350,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,7 +477,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -496,43 +504,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -847,23 +856,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D494B-3CB7-495F-9E08-1B382AD2BD6C}">
   <dimension ref="A1:AB127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R3" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="2"/>
+    <col min="5" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="33.85546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="2"/>
     <col min="12" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="19" width="23.28515625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="18" customWidth="1"/>
+    <col min="18" max="19" width="23.28515625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -888,10 +898,10 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="18"/>
       <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
@@ -910,10 +920,10 @@
       <c r="Q1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="20"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -931,9 +941,9 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="L2" s="21">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="L2" s="12">
         <v>1</v>
       </c>
       <c r="M2" s="9"/>
@@ -947,17 +957,17 @@
       <c r="Q2" s="9">
         <v>1</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="V2" s="19" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="V2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -977,9 +987,9 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="L3" s="21">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="L3" s="12">
         <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -995,18 +1005,18 @@
       <c r="Q3" s="9">
         <v>0</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="18" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1026,9 +1036,9 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="L4" s="21">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="L4" s="12">
         <v>3</v>
       </c>
       <c r="M4" s="9"/>
@@ -1042,18 +1052,18 @@
       <c r="Q4" s="9">
         <v>0</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="18" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1073,9 +1083,9 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="L5" s="21">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="L5" s="12">
         <v>4</v>
       </c>
       <c r="M5" s="9"/>
@@ -1089,15 +1099,15 @@
       <c r="Q5" s="9">
         <v>1</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
     </row>
     <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1117,9 +1127,9 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="L6" s="21">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="L6" s="12">
         <v>5</v>
       </c>
       <c r="M6" s="9"/>
@@ -1133,17 +1143,17 @@
       <c r="Q6" s="9">
         <v>1</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="V6" s="19" t="s">
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="V6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1165,9 +1175,9 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="L7" s="21">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="L7" s="12">
         <v>6</v>
       </c>
       <c r="M7" s="9"/>
@@ -1181,15 +1191,15 @@
       <c r="Q7" s="9">
         <v>1</v>
       </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1211,9 +1221,9 @@
       <c r="G8" s="4">
         <v>-1</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="L8" s="21">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="L8" s="12">
         <v>7</v>
       </c>
       <c r="M8" s="9"/>
@@ -1227,15 +1237,15 @@
       <c r="Q8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1257,9 +1267,9 @@
       <c r="G9" s="4">
         <v>-1</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="L9" s="21">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="L9" s="12">
         <v>8</v>
       </c>
       <c r="M9" s="9"/>
@@ -1275,18 +1285,18 @@
       <c r="Q9" s="9">
         <v>0</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="18" t="s">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
     </row>
     <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1308,11 +1318,11 @@
       <c r="G10" s="4">
         <v>-1</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="L10" s="21">
+      <c r="I10" s="16"/>
+      <c r="L10" s="12">
         <v>9</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -1328,10 +1338,10 @@
       <c r="Q10" s="9">
         <v>0</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="22"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1351,11 +1361,11 @@
       <c r="G11" s="4">
         <v>-1</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="L11" s="21">
+      <c r="I11" s="17"/>
+      <c r="L11" s="12">
         <v>10</v>
       </c>
       <c r="M11" s="9"/>
@@ -1369,8 +1379,8 @@
       <c r="Q11" s="9">
         <v>0</v>
       </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1390,11 +1400,11 @@
       <c r="G12" s="4">
         <v>-1</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="L12" s="21">
+      <c r="I12" s="16"/>
+      <c r="L12" s="12">
         <v>11</v>
       </c>
       <c r="M12" s="9"/>
@@ -1408,9 +1418,9 @@
       <c r="Q12" s="9">
         <v>1</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="18" t="s">
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1432,11 +1442,11 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="L13" s="21">
+      <c r="I13" s="16"/>
+      <c r="L13" s="12">
         <v>12</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -1452,9 +1462,9 @@
       <c r="Q13" s="9">
         <v>1</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="18" t="s">
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1478,11 +1488,11 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="L14" s="21">
+      <c r="I14" s="16"/>
+      <c r="L14" s="12">
         <v>13</v>
       </c>
       <c r="M14" s="9"/>
@@ -1496,9 +1506,9 @@
       <c r="Q14" s="9">
         <v>0</v>
       </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="18" t="s">
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1520,11 +1530,11 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="L15" s="21">
+      <c r="I15" s="16"/>
+      <c r="L15" s="12">
         <v>14</v>
       </c>
       <c r="M15" s="9"/>
@@ -1538,8 +1548,9 @@
       <c r="Q15" s="9">
         <v>1</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1561,11 +1572,11 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="L16" s="21">
+      <c r="I16" s="16"/>
+      <c r="L16" s="12">
         <v>15</v>
       </c>
       <c r="M16" s="9"/>
@@ -1579,8 +1590,8 @@
       <c r="Q16" s="9">
         <v>1</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1602,11 +1613,11 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="L17" s="21">
+      <c r="I17" s="16"/>
+      <c r="L17" s="12">
         <v>16</v>
       </c>
       <c r="M17" s="9"/>
@@ -1620,8 +1631,8 @@
       <c r="Q17" s="9">
         <v>1</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1645,9 +1656,9 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="L18" s="21">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="L18" s="12">
         <v>17</v>
       </c>
       <c r="M18" s="9"/>
@@ -1663,9 +1674,9 @@
       <c r="Q18" s="9">
         <v>0</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="18" t="s">
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1691,9 +1702,9 @@
       <c r="G19" s="4">
         <v>-1</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="L19" s="21">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="L19" s="12">
         <v>18</v>
       </c>
       <c r="M19" s="9"/>
@@ -1707,8 +1718,8 @@
       <c r="Q19" s="9">
         <v>0</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1732,9 +1743,9 @@
       <c r="G20" s="4">
         <v>-1</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="L20" s="21">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="L20" s="12">
         <v>19</v>
       </c>
       <c r="M20" s="9"/>
@@ -1748,8 +1759,8 @@
       <c r="Q20" s="9">
         <v>0</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1773,11 +1784,11 @@
       <c r="G21" s="4">
         <v>-1</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="L21" s="21">
+      <c r="I21" s="16"/>
+      <c r="L21" s="12">
         <v>20</v>
       </c>
       <c r="M21" s="9"/>
@@ -1791,9 +1802,9 @@
       <c r="Q21" s="9">
         <v>1</v>
       </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="18" t="s">
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1817,11 +1828,11 @@
       <c r="G22" s="4">
         <v>-1</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="L22" s="21">
+      <c r="I22" s="16"/>
+      <c r="L22" s="12">
         <v>21</v>
       </c>
       <c r="M22" s="9"/>
@@ -1829,8 +1840,8 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1852,11 +1863,11 @@
       <c r="G23" s="4">
         <v>-1</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="L23" s="21">
+      <c r="I23" s="16"/>
+      <c r="L23" s="12">
         <v>22</v>
       </c>
       <c r="M23" s="9"/>
@@ -1864,8 +1875,8 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1885,11 +1896,11 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="L24" s="21">
+      <c r="I24" s="16"/>
+      <c r="L24" s="12">
         <v>23</v>
       </c>
       <c r="M24" s="9"/>
@@ -1897,8 +1908,8 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1918,10 +1929,10 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="16"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
@@ -1943,10 +1954,10 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="16"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
@@ -1970,10 +1981,10 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="16"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
@@ -1997,10 +2008,10 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="16"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
@@ -2026,8 +2037,8 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
@@ -2053,8 +2064,8 @@
       <c r="G30" s="4">
         <v>-1</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
@@ -2080,10 +2091,10 @@
       <c r="G31" s="4">
         <v>-1</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="16"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
@@ -2107,10 +2118,10 @@
       <c r="G32" s="4">
         <v>-1</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="16"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
@@ -2132,10 +2143,10 @@
       <c r="G33" s="4">
         <v>-1</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="16"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
@@ -2157,10 +2168,10 @@
       <c r="G34" s="4">
         <v>-1</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="16"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
@@ -2184,10 +2195,10 @@
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="16"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
@@ -2209,10 +2220,10 @@
       <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="16"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
@@ -2234,10 +2245,10 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="16"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
@@ -2261,10 +2272,10 @@
       <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="16"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
     </row>
@@ -2288,10 +2299,10 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="16"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
     </row>
@@ -2317,8 +2328,8 @@
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
     </row>
@@ -2344,8 +2355,8 @@
       <c r="G41" s="4">
         <v>-1</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
     </row>
@@ -2371,8 +2382,8 @@
       <c r="G42" s="4">
         <v>-1</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
     </row>
@@ -2398,10 +2409,10 @@
       <c r="G43" s="4">
         <v>-1</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="16"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
     </row>
@@ -2417,10 +2428,10 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" s="16"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
     </row>
@@ -2440,8 +2451,8 @@
         <v>0</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
     </row>
@@ -2545,10 +2556,10 @@
       <c r="G52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -2566,8 +2577,8 @@
       <c r="G53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -2587,8 +2598,8 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -2608,8 +2619,8 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -2629,8 +2640,8 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -2650,8 +2661,8 @@
       <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -2673,8 +2684,8 @@
       <c r="G58" s="4">
         <v>0</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -2696,8 +2707,8 @@
       <c r="G59" s="4">
         <v>-1</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -2719,8 +2730,8 @@
       <c r="G60" s="4">
         <v>-1</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -2740,10 +2751,10 @@
       <c r="G61" s="4">
         <v>-1</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -2763,10 +2774,10 @@
       <c r="G62" s="4">
         <v>-1</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
@@ -2786,10 +2797,10 @@
       <c r="G63" s="4">
         <v>-1</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I63" s="13"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -2809,10 +2820,10 @@
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -2834,10 +2845,10 @@
       <c r="G65" s="4">
         <v>0</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="13"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -2857,10 +2868,10 @@
       <c r="G66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -2882,10 +2893,10 @@
       <c r="G67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="13"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -2907,10 +2918,10 @@
       <c r="G68" s="4">
         <v>0</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="13"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -2934,8 +2945,8 @@
       <c r="G69" s="4">
         <v>0</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
@@ -2959,8 +2970,8 @@
       <c r="G70" s="4">
         <v>-1</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -2984,8 +2995,8 @@
       <c r="G71" s="4">
         <v>-1</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -3007,10 +3018,10 @@
       <c r="G72" s="4">
         <v>-1</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -3032,10 +3043,10 @@
       <c r="G73" s="4">
         <v>-1</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -3055,10 +3066,10 @@
       <c r="G74" s="4">
         <v>-1</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -3078,10 +3089,10 @@
       <c r="G75" s="4">
         <v>0</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -3101,10 +3112,10 @@
       <c r="G76" s="4">
         <v>0</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
@@ -3124,10 +3135,10 @@
       <c r="G77" s="4">
         <v>0</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -3149,10 +3160,10 @@
       <c r="G78" s="4">
         <v>0</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -3174,10 +3185,10 @@
       <c r="G79" s="4">
         <v>0</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="13"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -3201,12 +3212,12 @@
       <c r="G80" s="4">
         <v>0</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="10" t="s">
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K80" s="11"/>
+      <c r="K80" s="22"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -3230,8 +3241,8 @@
       <c r="G81" s="4">
         <v>-1</v>
       </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
@@ -3253,10 +3264,10 @@
       <c r="G82" s="4">
         <v>-1</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -3276,10 +3287,10 @@
       <c r="G83" s="4">
         <v>-1</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I83" s="13"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
@@ -3299,10 +3310,10 @@
       <c r="G84" s="4">
         <v>-1</v>
       </c>
-      <c r="H84" s="13" t="s">
+      <c r="H84" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I84" s="13"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
@@ -3322,10 +3333,10 @@
       <c r="G85" s="4">
         <v>-1</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I85" s="13"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -3347,10 +3358,10 @@
       <c r="G86" s="4">
         <v>0</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H86" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I86" s="13"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -3370,10 +3381,10 @@
       <c r="G87" s="4">
         <v>0</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H87" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I87" s="13"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -3393,10 +3404,10 @@
       <c r="G88" s="4">
         <v>0</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I88" s="13"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -3418,10 +3429,10 @@
       <c r="G89" s="4">
         <v>0</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I89" s="13"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
@@ -3443,10 +3454,10 @@
       <c r="G90" s="4">
         <v>0</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I90" s="13"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -3470,12 +3481,12 @@
       <c r="G91" s="4">
         <v>0</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="10" t="s">
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K91" s="11"/>
+      <c r="K91" s="22"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -3499,8 +3510,8 @@
       <c r="G92" s="4">
         <v>-1</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -3524,8 +3535,8 @@
       <c r="G93" s="4">
         <v>-1</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -3545,10 +3556,10 @@
       <c r="G94" s="4">
         <v>-1</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I94" s="13"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -3568,10 +3579,10 @@
       <c r="G95" s="4">
         <v>-1</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I95" s="13"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -3591,14 +3602,14 @@
       <c r="G96" s="4">
         <v>-1</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="10" t="s">
+      <c r="I96" s="16"/>
+      <c r="J96" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="11"/>
+      <c r="K96" s="22"/>
     </row>
     <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
@@ -3610,8 +3621,8 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -3623,8 +3634,8 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -3636,8 +3647,8 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
@@ -3649,8 +3660,8 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
@@ -3662,8 +3673,8 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -3675,8 +3686,8 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -3688,8 +3699,8 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -3701,8 +3712,8 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105"/>
@@ -3771,75 +3782,228 @@
       <c r="I110" s="15"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
     <mergeCell ref="V2:AB5"/>
     <mergeCell ref="V6:AB9"/>
     <mergeCell ref="H122:I122"/>
@@ -3864,159 +4028,6 @@
     <mergeCell ref="H105:I105"/>
     <mergeCell ref="H106:I106"/>
     <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
